--- a/2022-23 Team Online View v6.xlsx
+++ b/2022-23 Team Online View v6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codyh\Desktop\Hockey Stats\Current\2023 Season\Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codyh\Desktop\Bets\2023 Season\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CED796-C443-4136-BFEE-2E4437CD09AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D1D105-C1CC-4485-8A16-D3BD79768C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{049F68FE-1E5B-471C-9A87-1116CECF9923}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Regular Season Complete</t>
-  </si>
-  <si>
-    <t>Starting Goalie Adjusted</t>
   </si>
 </sst>
 </file>
@@ -203,23 +200,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>601018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>105562</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181734</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9D6DAA-F35D-27C2-DDEC-B1E54ED884F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E7D66C-8C47-D441-B53A-DC04E3988EA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -235,8 +232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23717250" y="1352550"/>
-          <a:ext cx="6754168" cy="5639587"/>
+          <a:off x="2057400" y="1117600"/>
+          <a:ext cx="5439534" cy="4105848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,23 +244,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>48178</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133778</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>331370</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE7A971-0F28-EB6A-0737-B9D86720B19B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68413AA1-D4EC-7347-84EE-90388E1D2AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,8 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19250025" y="1238250"/>
-          <a:ext cx="3962953" cy="3067478"/>
+          <a:off x="7797800" y="1143000"/>
+          <a:ext cx="8383170" cy="7087589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,23 +288,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>353018</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>10292</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22960</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E54AFD-22A6-545D-D8A5-43E8F576487E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA64A47A-477A-F4DE-A55F-49EA243D1BBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,140 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19269075" y="4657725"/>
-          <a:ext cx="4248743" cy="5496692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>305353</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F726F43-C540-13C6-C2D1-A7523B440847}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="1276350"/>
-          <a:ext cx="3962953" cy="2886478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>429569</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>172216</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70686C9B-F0E2-87C3-C28E-905F6BDCFA4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7077075" y="1390650"/>
-          <a:ext cx="6763694" cy="5487166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600669</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>29337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADDF100-E609-485C-5791-792D60ADBFD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="4895850"/>
-          <a:ext cx="4258269" cy="5458587"/>
+          <a:off x="2070100" y="5511800"/>
+          <a:ext cx="5268060" cy="7068536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5990DE-A43E-406D-8236-EA9036C92355}">
   <dimension ref="D5:BF73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ29" sqref="AZ29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,9 +645,7 @@
       <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
@@ -812,33 +675,33 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="4"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
     </row>
     <row r="7" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
@@ -868,7 +731,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="7"/>
-      <c r="AF7" s="5"/>
+      <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -894,7 +757,7 @@
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="7"/>
+      <c r="BF7" s="6"/>
     </row>
     <row r="8" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D8" s="5"/>
@@ -924,7 +787,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="7"/>
-      <c r="AF8" s="5"/>
+      <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -950,7 +813,7 @@
       <c r="BC8" s="6"/>
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
-      <c r="BF8" s="7"/>
+      <c r="BF8" s="6"/>
     </row>
     <row r="9" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
@@ -980,7 +843,7 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="7"/>
-      <c r="AF9" s="5"/>
+      <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -1006,7 +869,7 @@
       <c r="BC9" s="6"/>
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
-      <c r="BF9" s="7"/>
+      <c r="BF9" s="6"/>
     </row>
     <row r="10" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
@@ -1036,7 +899,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="7"/>
-      <c r="AF10" s="5"/>
+      <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
@@ -1062,7 +925,7 @@
       <c r="BC10" s="6"/>
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="7"/>
+      <c r="BF10" s="6"/>
     </row>
     <row r="11" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
@@ -1092,7 +955,7 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="7"/>
-      <c r="AF11" s="5"/>
+      <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
@@ -1118,7 +981,7 @@
       <c r="BC11" s="6"/>
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
-      <c r="BF11" s="7"/>
+      <c r="BF11" s="6"/>
     </row>
     <row r="12" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
@@ -1148,7 +1011,7 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="7"/>
-      <c r="AF12" s="5"/>
+      <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
@@ -1174,7 +1037,7 @@
       <c r="BC12" s="6"/>
       <c r="BD12" s="6"/>
       <c r="BE12" s="6"/>
-      <c r="BF12" s="7"/>
+      <c r="BF12" s="6"/>
     </row>
     <row r="13" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
@@ -1204,7 +1067,7 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="7"/>
-      <c r="AF13" s="5"/>
+      <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
@@ -1230,7 +1093,7 @@
       <c r="BC13" s="6"/>
       <c r="BD13" s="6"/>
       <c r="BE13" s="6"/>
-      <c r="BF13" s="7"/>
+      <c r="BF13" s="6"/>
     </row>
     <row r="14" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
@@ -1260,7 +1123,7 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="7"/>
-      <c r="AF14" s="5"/>
+      <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -1286,7 +1149,7 @@
       <c r="BC14" s="6"/>
       <c r="BD14" s="6"/>
       <c r="BE14" s="6"/>
-      <c r="BF14" s="7"/>
+      <c r="BF14" s="6"/>
     </row>
     <row r="15" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
@@ -1316,7 +1179,7 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="7"/>
-      <c r="AF15" s="5"/>
+      <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
@@ -1342,7 +1205,7 @@
       <c r="BC15" s="6"/>
       <c r="BD15" s="6"/>
       <c r="BE15" s="6"/>
-      <c r="BF15" s="7"/>
+      <c r="BF15" s="6"/>
     </row>
     <row r="16" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
@@ -1372,7 +1235,7 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="7"/>
-      <c r="AF16" s="5"/>
+      <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
@@ -1398,7 +1261,7 @@
       <c r="BC16" s="6"/>
       <c r="BD16" s="6"/>
       <c r="BE16" s="6"/>
-      <c r="BF16" s="7"/>
+      <c r="BF16" s="6"/>
     </row>
     <row r="17" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
@@ -1428,7 +1291,7 @@
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="7"/>
-      <c r="AF17" s="5"/>
+      <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
@@ -1454,7 +1317,7 @@
       <c r="BC17" s="6"/>
       <c r="BD17" s="6"/>
       <c r="BE17" s="6"/>
-      <c r="BF17" s="7"/>
+      <c r="BF17" s="6"/>
     </row>
     <row r="18" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
@@ -1484,7 +1347,7 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="7"/>
-      <c r="AF18" s="5"/>
+      <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
@@ -1510,7 +1373,7 @@
       <c r="BC18" s="6"/>
       <c r="BD18" s="6"/>
       <c r="BE18" s="6"/>
-      <c r="BF18" s="7"/>
+      <c r="BF18" s="6"/>
     </row>
     <row r="19" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
@@ -1540,7 +1403,7 @@
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="7"/>
-      <c r="AF19" s="5"/>
+      <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
@@ -1566,7 +1429,7 @@
       <c r="BC19" s="6"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
-      <c r="BF19" s="7"/>
+      <c r="BF19" s="6"/>
     </row>
     <row r="20" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
@@ -1596,7 +1459,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="7"/>
-      <c r="AF20" s="5"/>
+      <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
@@ -1622,7 +1485,7 @@
       <c r="BC20" s="6"/>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
-      <c r="BF20" s="7"/>
+      <c r="BF20" s="6"/>
     </row>
     <row r="21" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
@@ -1652,7 +1515,7 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="7"/>
-      <c r="AF21" s="5"/>
+      <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
@@ -1678,7 +1541,7 @@
       <c r="BC21" s="6"/>
       <c r="BD21" s="6"/>
       <c r="BE21" s="6"/>
-      <c r="BF21" s="7"/>
+      <c r="BF21" s="6"/>
     </row>
     <row r="22" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
@@ -1708,7 +1571,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="7"/>
-      <c r="AF22" s="5"/>
+      <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
@@ -1734,7 +1597,7 @@
       <c r="BC22" s="6"/>
       <c r="BD22" s="6"/>
       <c r="BE22" s="6"/>
-      <c r="BF22" s="7"/>
+      <c r="BF22" s="6"/>
     </row>
     <row r="23" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
@@ -1764,7 +1627,7 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="7"/>
-      <c r="AF23" s="5"/>
+      <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
@@ -1790,7 +1653,7 @@
       <c r="BC23" s="6"/>
       <c r="BD23" s="6"/>
       <c r="BE23" s="6"/>
-      <c r="BF23" s="7"/>
+      <c r="BF23" s="6"/>
     </row>
     <row r="24" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
@@ -1820,7 +1683,7 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="7"/>
-      <c r="AF24" s="5"/>
+      <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
@@ -1846,7 +1709,7 @@
       <c r="BC24" s="6"/>
       <c r="BD24" s="6"/>
       <c r="BE24" s="6"/>
-      <c r="BF24" s="7"/>
+      <c r="BF24" s="6"/>
     </row>
     <row r="25" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
@@ -1876,7 +1739,7 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="7"/>
-      <c r="AF25" s="5"/>
+      <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
@@ -1902,7 +1765,7 @@
       <c r="BC25" s="6"/>
       <c r="BD25" s="6"/>
       <c r="BE25" s="6"/>
-      <c r="BF25" s="7"/>
+      <c r="BF25" s="6"/>
     </row>
     <row r="26" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
@@ -1932,7 +1795,7 @@
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="7"/>
-      <c r="AF26" s="5"/>
+      <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
@@ -1958,7 +1821,7 @@
       <c r="BC26" s="6"/>
       <c r="BD26" s="6"/>
       <c r="BE26" s="6"/>
-      <c r="BF26" s="7"/>
+      <c r="BF26" s="6"/>
     </row>
     <row r="27" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
@@ -1988,7 +1851,7 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="7"/>
-      <c r="AF27" s="5"/>
+      <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
@@ -2014,7 +1877,7 @@
       <c r="BC27" s="6"/>
       <c r="BD27" s="6"/>
       <c r="BE27" s="6"/>
-      <c r="BF27" s="7"/>
+      <c r="BF27" s="6"/>
     </row>
     <row r="28" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
@@ -2044,7 +1907,7 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="7"/>
-      <c r="AF28" s="5"/>
+      <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
@@ -2070,7 +1933,7 @@
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
       <c r="BE28" s="6"/>
-      <c r="BF28" s="7"/>
+      <c r="BF28" s="6"/>
     </row>
     <row r="29" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D29" s="5"/>
@@ -2100,7 +1963,7 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="7"/>
-      <c r="AF29" s="5"/>
+      <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
@@ -2126,7 +1989,7 @@
       <c r="BC29" s="6"/>
       <c r="BD29" s="6"/>
       <c r="BE29" s="6"/>
-      <c r="BF29" s="7"/>
+      <c r="BF29" s="6"/>
     </row>
     <row r="30" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D30" s="5"/>
@@ -2156,7 +2019,7 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="7"/>
-      <c r="AF30" s="5"/>
+      <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
@@ -2182,7 +2045,7 @@
       <c r="BC30" s="6"/>
       <c r="BD30" s="6"/>
       <c r="BE30" s="6"/>
-      <c r="BF30" s="7"/>
+      <c r="BF30" s="6"/>
     </row>
     <row r="31" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D31" s="5"/>
@@ -2212,7 +2075,7 @@
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="7"/>
-      <c r="AF31" s="5"/>
+      <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
@@ -2238,7 +2101,7 @@
       <c r="BC31" s="6"/>
       <c r="BD31" s="6"/>
       <c r="BE31" s="6"/>
-      <c r="BF31" s="7"/>
+      <c r="BF31" s="6"/>
     </row>
     <row r="32" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D32" s="5"/>
@@ -2268,7 +2131,7 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="7"/>
-      <c r="AF32" s="5"/>
+      <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
@@ -2294,7 +2157,7 @@
       <c r="BC32" s="6"/>
       <c r="BD32" s="6"/>
       <c r="BE32" s="6"/>
-      <c r="BF32" s="7"/>
+      <c r="BF32" s="6"/>
     </row>
     <row r="33" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
@@ -2324,7 +2187,7 @@
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="7"/>
-      <c r="AF33" s="5"/>
+      <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
@@ -2350,7 +2213,7 @@
       <c r="BC33" s="6"/>
       <c r="BD33" s="6"/>
       <c r="BE33" s="6"/>
-      <c r="BF33" s="7"/>
+      <c r="BF33" s="6"/>
     </row>
     <row r="34" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D34" s="5"/>
@@ -2380,7 +2243,7 @@
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="7"/>
-      <c r="AF34" s="5"/>
+      <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
@@ -2406,7 +2269,7 @@
       <c r="BC34" s="6"/>
       <c r="BD34" s="6"/>
       <c r="BE34" s="6"/>
-      <c r="BF34" s="7"/>
+      <c r="BF34" s="6"/>
     </row>
     <row r="35" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D35" s="5"/>
@@ -2436,7 +2299,7 @@
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="7"/>
-      <c r="AF35" s="5"/>
+      <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -2462,7 +2325,7 @@
       <c r="BC35" s="6"/>
       <c r="BD35" s="6"/>
       <c r="BE35" s="6"/>
-      <c r="BF35" s="7"/>
+      <c r="BF35" s="6"/>
     </row>
     <row r="36" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D36" s="5"/>
@@ -2492,7 +2355,7 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="7"/>
-      <c r="AF36" s="5"/>
+      <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -2518,7 +2381,7 @@
       <c r="BC36" s="6"/>
       <c r="BD36" s="6"/>
       <c r="BE36" s="6"/>
-      <c r="BF36" s="7"/>
+      <c r="BF36" s="6"/>
     </row>
     <row r="37" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D37" s="5"/>
@@ -2548,7 +2411,7 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="7"/>
-      <c r="AF37" s="5"/>
+      <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -2574,7 +2437,7 @@
       <c r="BC37" s="6"/>
       <c r="BD37" s="6"/>
       <c r="BE37" s="6"/>
-      <c r="BF37" s="7"/>
+      <c r="BF37" s="6"/>
     </row>
     <row r="38" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D38" s="5"/>
@@ -2604,7 +2467,7 @@
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="7"/>
-      <c r="AF38" s="5"/>
+      <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -2630,7 +2493,7 @@
       <c r="BC38" s="6"/>
       <c r="BD38" s="6"/>
       <c r="BE38" s="6"/>
-      <c r="BF38" s="7"/>
+      <c r="BF38" s="6"/>
     </row>
     <row r="39" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D39" s="5"/>
@@ -2660,7 +2523,7 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="7"/>
-      <c r="AF39" s="5"/>
+      <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
@@ -2686,7 +2549,7 @@
       <c r="BC39" s="6"/>
       <c r="BD39" s="6"/>
       <c r="BE39" s="6"/>
-      <c r="BF39" s="7"/>
+      <c r="BF39" s="6"/>
     </row>
     <row r="40" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D40" s="5"/>
@@ -2716,7 +2579,7 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="7"/>
-      <c r="AF40" s="5"/>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
@@ -2742,7 +2605,7 @@
       <c r="BC40" s="6"/>
       <c r="BD40" s="6"/>
       <c r="BE40" s="6"/>
-      <c r="BF40" s="7"/>
+      <c r="BF40" s="6"/>
     </row>
     <row r="41" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D41" s="5"/>
@@ -2772,7 +2635,7 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="7"/>
-      <c r="AF41" s="5"/>
+      <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
@@ -2798,7 +2661,7 @@
       <c r="BC41" s="6"/>
       <c r="BD41" s="6"/>
       <c r="BE41" s="6"/>
-      <c r="BF41" s="7"/>
+      <c r="BF41" s="6"/>
     </row>
     <row r="42" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D42" s="5"/>
@@ -2828,7 +2691,7 @@
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="7"/>
-      <c r="AF42" s="5"/>
+      <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
@@ -2854,7 +2717,7 @@
       <c r="BC42" s="6"/>
       <c r="BD42" s="6"/>
       <c r="BE42" s="6"/>
-      <c r="BF42" s="7"/>
+      <c r="BF42" s="6"/>
     </row>
     <row r="43" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D43" s="5"/>
@@ -2884,7 +2747,7 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="7"/>
-      <c r="AF43" s="5"/>
+      <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -2910,7 +2773,7 @@
       <c r="BC43" s="6"/>
       <c r="BD43" s="6"/>
       <c r="BE43" s="6"/>
-      <c r="BF43" s="7"/>
+      <c r="BF43" s="6"/>
     </row>
     <row r="44" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D44" s="5"/>
@@ -2940,7 +2803,7 @@
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="7"/>
-      <c r="AF44" s="5"/>
+      <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
@@ -2966,7 +2829,7 @@
       <c r="BC44" s="6"/>
       <c r="BD44" s="6"/>
       <c r="BE44" s="6"/>
-      <c r="BF44" s="7"/>
+      <c r="BF44" s="6"/>
     </row>
     <row r="45" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D45" s="5"/>
@@ -2996,7 +2859,7 @@
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="7"/>
-      <c r="AF45" s="5"/>
+      <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
@@ -3022,7 +2885,7 @@
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
       <c r="BE45" s="6"/>
-      <c r="BF45" s="7"/>
+      <c r="BF45" s="6"/>
     </row>
     <row r="46" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D46" s="5"/>
@@ -3052,7 +2915,7 @@
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="7"/>
-      <c r="AF46" s="5"/>
+      <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
@@ -3078,7 +2941,7 @@
       <c r="BC46" s="6"/>
       <c r="BD46" s="6"/>
       <c r="BE46" s="6"/>
-      <c r="BF46" s="7"/>
+      <c r="BF46" s="6"/>
     </row>
     <row r="47" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D47" s="5"/>
@@ -3108,7 +2971,7 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="7"/>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
@@ -3134,7 +2997,7 @@
       <c r="BC47" s="6"/>
       <c r="BD47" s="6"/>
       <c r="BE47" s="6"/>
-      <c r="BF47" s="7"/>
+      <c r="BF47" s="6"/>
     </row>
     <row r="48" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D48" s="5"/>
@@ -3164,7 +3027,7 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="7"/>
-      <c r="AF48" s="5"/>
+      <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
@@ -3190,7 +3053,7 @@
       <c r="BC48" s="6"/>
       <c r="BD48" s="6"/>
       <c r="BE48" s="6"/>
-      <c r="BF48" s="7"/>
+      <c r="BF48" s="6"/>
     </row>
     <row r="49" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D49" s="5"/>
@@ -3220,7 +3083,7 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="7"/>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
@@ -3246,7 +3109,7 @@
       <c r="BC49" s="6"/>
       <c r="BD49" s="6"/>
       <c r="BE49" s="6"/>
-      <c r="BF49" s="7"/>
+      <c r="BF49" s="6"/>
     </row>
     <row r="50" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D50" s="5"/>
@@ -3276,7 +3139,7 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="7"/>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
@@ -3302,7 +3165,7 @@
       <c r="BC50" s="6"/>
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
-      <c r="BF50" s="7"/>
+      <c r="BF50" s="6"/>
     </row>
     <row r="51" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D51" s="5"/>
@@ -3332,7 +3195,7 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="7"/>
-      <c r="AF51" s="5"/>
+      <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
@@ -3358,7 +3221,7 @@
       <c r="BC51" s="6"/>
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
-      <c r="BF51" s="7"/>
+      <c r="BF51" s="6"/>
     </row>
     <row r="52" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
@@ -3388,7 +3251,7 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="7"/>
-      <c r="AF52" s="5"/>
+      <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
@@ -3414,7 +3277,7 @@
       <c r="BC52" s="6"/>
       <c r="BD52" s="6"/>
       <c r="BE52" s="6"/>
-      <c r="BF52" s="7"/>
+      <c r="BF52" s="6"/>
     </row>
     <row r="53" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D53" s="5"/>
@@ -3444,7 +3307,7 @@
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="7"/>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
@@ -3470,7 +3333,7 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="7"/>
+      <c r="BF53" s="6"/>
     </row>
     <row r="54" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D54" s="5"/>
@@ -3500,7 +3363,7 @@
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="7"/>
-      <c r="AF54" s="5"/>
+      <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
@@ -3526,7 +3389,7 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="7"/>
+      <c r="BF54" s="6"/>
     </row>
     <row r="55" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D55" s="5"/>
@@ -3556,7 +3419,7 @@
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="7"/>
-      <c r="AF55" s="5"/>
+      <c r="AF55" s="6"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
@@ -3582,7 +3445,7 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="7"/>
+      <c r="BF55" s="6"/>
     </row>
     <row r="56" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D56" s="5"/>
@@ -3612,7 +3475,7 @@
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="7"/>
-      <c r="AF56" s="5"/>
+      <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
@@ -3638,7 +3501,7 @@
       <c r="BC56" s="6"/>
       <c r="BD56" s="6"/>
       <c r="BE56" s="6"/>
-      <c r="BF56" s="7"/>
+      <c r="BF56" s="6"/>
     </row>
     <row r="57" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D57" s="5"/>
@@ -3668,7 +3531,7 @@
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="7"/>
-      <c r="AF57" s="5"/>
+      <c r="AF57" s="6"/>
       <c r="AG57" s="6"/>
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
@@ -3694,7 +3557,7 @@
       <c r="BC57" s="6"/>
       <c r="BD57" s="6"/>
       <c r="BE57" s="6"/>
-      <c r="BF57" s="7"/>
+      <c r="BF57" s="6"/>
     </row>
     <row r="58" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D58" s="5"/>
@@ -3724,7 +3587,7 @@
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="7"/>
-      <c r="AF58" s="5"/>
+      <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
@@ -3750,7 +3613,7 @@
       <c r="BC58" s="6"/>
       <c r="BD58" s="6"/>
       <c r="BE58" s="6"/>
-      <c r="BF58" s="7"/>
+      <c r="BF58" s="6"/>
     </row>
     <row r="59" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D59" s="5"/>
@@ -3780,7 +3643,7 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="7"/>
-      <c r="AF59" s="5"/>
+      <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
@@ -3806,7 +3669,7 @@
       <c r="BC59" s="6"/>
       <c r="BD59" s="6"/>
       <c r="BE59" s="6"/>
-      <c r="BF59" s="7"/>
+      <c r="BF59" s="6"/>
     </row>
     <row r="60" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D60" s="5"/>
@@ -3836,7 +3699,7 @@
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="7"/>
-      <c r="AF60" s="5"/>
+      <c r="AF60" s="6"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
@@ -3862,7 +3725,7 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="7"/>
+      <c r="BF60" s="6"/>
     </row>
     <row r="61" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D61" s="5"/>
@@ -3892,7 +3755,7 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="7"/>
-      <c r="AF61" s="5"/>
+      <c r="AF61" s="6"/>
       <c r="AG61" s="6"/>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
@@ -3918,7 +3781,7 @@
       <c r="BC61" s="6"/>
       <c r="BD61" s="6"/>
       <c r="BE61" s="6"/>
-      <c r="BF61" s="7"/>
+      <c r="BF61" s="6"/>
     </row>
     <row r="62" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D62" s="5"/>
@@ -3948,7 +3811,7 @@
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="7"/>
-      <c r="AF62" s="5"/>
+      <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
@@ -3974,7 +3837,7 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="7"/>
+      <c r="BF62" s="6"/>
     </row>
     <row r="63" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D63" s="5"/>
@@ -4004,7 +3867,7 @@
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="7"/>
-      <c r="AF63" s="5"/>
+      <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
@@ -4030,7 +3893,7 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="7"/>
+      <c r="BF63" s="6"/>
     </row>
     <row r="64" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D64" s="5"/>
@@ -4060,7 +3923,7 @@
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="7"/>
-      <c r="AF64" s="5"/>
+      <c r="AF64" s="6"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
@@ -4086,7 +3949,7 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="7"/>
+      <c r="BF64" s="6"/>
     </row>
     <row r="65" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D65" s="5"/>
@@ -4116,7 +3979,7 @@
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="7"/>
-      <c r="AF65" s="5"/>
+      <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
@@ -4142,7 +4005,7 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="7"/>
+      <c r="BF65" s="6"/>
     </row>
     <row r="66" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D66" s="5"/>
@@ -4172,7 +4035,7 @@
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="7"/>
-      <c r="AF66" s="5"/>
+      <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
@@ -4198,7 +4061,7 @@
       <c r="BC66" s="6"/>
       <c r="BD66" s="6"/>
       <c r="BE66" s="6"/>
-      <c r="BF66" s="7"/>
+      <c r="BF66" s="6"/>
     </row>
     <row r="67" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D67" s="5"/>
@@ -4228,7 +4091,7 @@
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="7"/>
-      <c r="AF67" s="5"/>
+      <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
@@ -4254,7 +4117,7 @@
       <c r="BC67" s="6"/>
       <c r="BD67" s="6"/>
       <c r="BE67" s="6"/>
-      <c r="BF67" s="7"/>
+      <c r="BF67" s="6"/>
     </row>
     <row r="68" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D68" s="5"/>
@@ -4284,7 +4147,7 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="7"/>
-      <c r="AF68" s="5"/>
+      <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
@@ -4310,7 +4173,7 @@
       <c r="BC68" s="6"/>
       <c r="BD68" s="6"/>
       <c r="BE68" s="6"/>
-      <c r="BF68" s="7"/>
+      <c r="BF68" s="6"/>
     </row>
     <row r="69" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D69" s="5"/>
@@ -4340,7 +4203,7 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="7"/>
-      <c r="AF69" s="5"/>
+      <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
@@ -4366,7 +4229,7 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="7"/>
+      <c r="BF69" s="6"/>
     </row>
     <row r="70" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D70" s="5"/>
@@ -4396,7 +4259,7 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="7"/>
-      <c r="AF70" s="5"/>
+      <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
@@ -4422,7 +4285,7 @@
       <c r="BC70" s="6"/>
       <c r="BD70" s="6"/>
       <c r="BE70" s="6"/>
-      <c r="BF70" s="7"/>
+      <c r="BF70" s="6"/>
     </row>
     <row r="71" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
@@ -4452,7 +4315,7 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="7"/>
-      <c r="AF71" s="5"/>
+      <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
@@ -4478,7 +4341,7 @@
       <c r="BC71" s="6"/>
       <c r="BD71" s="6"/>
       <c r="BE71" s="6"/>
-      <c r="BF71" s="7"/>
+      <c r="BF71" s="6"/>
     </row>
     <row r="72" spans="4:58" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
@@ -4508,7 +4371,7 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="7"/>
-      <c r="AF72" s="5"/>
+      <c r="AF72" s="6"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
@@ -4534,7 +4397,7 @@
       <c r="BC72" s="6"/>
       <c r="BD72" s="6"/>
       <c r="BE72" s="6"/>
-      <c r="BF72" s="7"/>
+      <c r="BF72" s="6"/>
     </row>
     <row r="73" spans="4:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
@@ -4564,36 +4427,36 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="10"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="9"/>
-      <c r="AH73" s="9"/>
-      <c r="AI73" s="9"/>
-      <c r="AJ73" s="9"/>
-      <c r="AK73" s="9"/>
-      <c r="AL73" s="9"/>
-      <c r="AM73" s="9"/>
-      <c r="AN73" s="9"/>
-      <c r="AO73" s="9"/>
-      <c r="AP73" s="9"/>
-      <c r="AQ73" s="9"/>
-      <c r="AR73" s="9"/>
-      <c r="AS73" s="9"/>
-      <c r="AT73" s="9"/>
-      <c r="AU73" s="9"/>
-      <c r="AV73" s="9"/>
-      <c r="AW73" s="9"/>
-      <c r="AX73" s="9"/>
-      <c r="AY73" s="9"/>
-      <c r="AZ73" s="9"/>
-      <c r="BA73" s="9"/>
-      <c r="BB73" s="9"/>
-      <c r="BC73" s="9"/>
-      <c r="BD73" s="9"/>
-      <c r="BE73" s="9"/>
-      <c r="BF73" s="10"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="6"/>
+      <c r="AQ73" s="6"/>
+      <c r="AR73" s="6"/>
+      <c r="AS73" s="6"/>
+      <c r="AT73" s="6"/>
+      <c r="AU73" s="6"/>
+      <c r="AV73" s="6"/>
+      <c r="AW73" s="6"/>
+      <c r="AX73" s="6"/>
+      <c r="AY73" s="6"/>
+      <c r="AZ73" s="6"/>
+      <c r="BA73" s="6"/>
+      <c r="BB73" s="6"/>
+      <c r="BC73" s="6"/>
+      <c r="BD73" s="6"/>
+      <c r="BE73" s="6"/>
+      <c r="BF73" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="72vSk1gYP+6FNnwzesBSyYLUfTTkGaPU2r362YsLkAFEZQJJYRSMMDlVNl5OeM3YZYqUznS+aADHFGQYIC4XMw==" saltValue="l1ouN0PgDUucKpMaBPZIig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UY7uURFuMyX+6oJow0MhkDNreDJhRMi884vU7rzSkeilFtAwbYlU29dQGYuUqSKpVh0sbQSsrciAuboc3tHGeA==" saltValue="NXWWZsAxXcP1kAanfVOCdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
